--- a/TCC/Experimentos/conjuntosInfo.xlsx
+++ b/TCC/Experimentos/conjuntosInfo.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConjuntoA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>Indíce</t>
   </si>
@@ -445,9 +446,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -459,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
@@ -764,10 +765,10 @@
       <c r="C1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -779,10 +780,10 @@
       <c r="C2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -794,10 +795,10 @@
       <c r="C3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -809,10 +810,10 @@
       <c r="C4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1612,4 +1613,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>